--- a/エクセル検索webアプリ/input.xlsx
+++ b/エクセル検索webアプリ/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\repository\いろいろ交換\iroirokoukan\エクセル検索webアプリ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F368B83-95FA-4A0B-A560-99F7411F526D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E322A6-C683-4D7E-BAEA-5B5D2593EB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="465" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4:AP89"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11913,8 +11913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11940,6 +11940,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -11949,9 +11952,7 @@
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
         <v>121</v>
       </c>
@@ -12002,8 +12003,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
